--- a/RA/piano_progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
+++ b/RA/piano_progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StefanoPanozzo\Documents\GitHub\Marvin\RA\piano_progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3170E43-88EF-42C7-A8C2-B258BA7E5345}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,6 +467,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -475,7 +475,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1372,11 +1371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
